--- a/ortlepp/RO_Lernplan.xlsx
+++ b/ortlepp/RO_Lernplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ba7ceed032030920/Studium/Grundlagen des Web/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\gdw\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{33AE3DEC-6D96-4E04-8E5A-76A3987C71ED}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Lernplan</t>
   </si>
@@ -135,7 +135,16 @@
     <t>Was hab ich gemacht</t>
   </si>
   <si>
-    <t>Javascript Grundlagen</t>
+    <t>OBS lernen</t>
+  </si>
+  <si>
+    <t>Video drehen und hochladen</t>
+  </si>
+  <si>
+    <t>Javascript Grundlagen Aufgabenblatt 1</t>
+  </si>
+  <si>
+    <t>Blatt 1 Grundlagen Javascript</t>
   </si>
 </sst>
 </file>
@@ -171,13 +180,56 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="13">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -194,19 +246,19 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27E5456E-1E44-4AB8-80EE-2B28853BAF5E}" name="Tabelle2" displayName="Tabelle2" ref="D3:X8" totalsRowShown="0">
   <autoFilter ref="D3:X8" xr:uid="{CCC7283C-DAE7-45AF-810C-730F5752B008}"/>
   <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{46226E65-C013-4713-9BAD-49FC9D38D477}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{74EE3947-3B5D-401E-BB10-0C0C88B03E42}" name="KW43"/>
-    <tableColumn id="3" xr3:uid="{3AAB0039-DCF9-4765-9261-7514EA2B6910}" name="KW44"/>
-    <tableColumn id="4" xr3:uid="{73278B9F-1DF2-43EB-B44B-FEF91025E1A5}" name="KW45"/>
-    <tableColumn id="5" xr3:uid="{193DA061-945F-4A8E-9110-AF0B692C737E}" name="KW46"/>
-    <tableColumn id="6" xr3:uid="{0C6684A0-44FF-4791-B5F8-4D4E1E0441D7}" name="KW47"/>
-    <tableColumn id="7" xr3:uid="{9F3E1F87-3A5C-4C49-9C2C-94B4EB146591}" name="KW48"/>
-    <tableColumn id="8" xr3:uid="{C33BF3AF-EE95-4335-B56C-9B6F21B8C55B}" name="KW49"/>
-    <tableColumn id="9" xr3:uid="{4C17F2E0-F2C7-4B27-B9CC-AA3CAC45A3C1}" name="KW50"/>
-    <tableColumn id="10" xr3:uid="{F8CA05F7-F18C-4751-AB3D-ABAA94C2245C}" name="KW51"/>
-    <tableColumn id="11" xr3:uid="{37B23729-425C-4CD7-A3AB-D97512313AD1}" name="KW52"/>
-    <tableColumn id="12" xr3:uid="{53302DFB-E2AE-43DD-8AE5-8F3D47EAAE3A}" name="KW1"/>
-    <tableColumn id="13" xr3:uid="{D36F548D-0B3E-49EC-9F26-2732FBDBC735}" name="KW2"/>
+    <tableColumn id="1" xr3:uid="{46226E65-C013-4713-9BAD-49FC9D38D477}" name="Spalte1" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{74EE3947-3B5D-401E-BB10-0C0C88B03E42}" name="KW43" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{3AAB0039-DCF9-4765-9261-7514EA2B6910}" name="KW44" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{73278B9F-1DF2-43EB-B44B-FEF91025E1A5}" name="KW45" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{193DA061-945F-4A8E-9110-AF0B692C737E}" name="KW46" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{0C6684A0-44FF-4791-B5F8-4D4E1E0441D7}" name="KW47" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{9F3E1F87-3A5C-4C49-9C2C-94B4EB146591}" name="KW48" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{C33BF3AF-EE95-4335-B56C-9B6F21B8C55B}" name="KW49" dataDxfId="5"/>
+    <tableColumn id="9" xr3:uid="{4C17F2E0-F2C7-4B27-B9CC-AA3CAC45A3C1}" name="KW50" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{F8CA05F7-F18C-4751-AB3D-ABAA94C2245C}" name="KW51" dataDxfId="3"/>
+    <tableColumn id="11" xr3:uid="{37B23729-425C-4CD7-A3AB-D97512313AD1}" name="KW52" dataDxfId="2"/>
+    <tableColumn id="12" xr3:uid="{53302DFB-E2AE-43DD-8AE5-8F3D47EAAE3A}" name="KW1" dataDxfId="1"/>
+    <tableColumn id="13" xr3:uid="{D36F548D-0B3E-49EC-9F26-2732FBDBC735}" name="KW2" dataDxfId="0"/>
     <tableColumn id="14" xr3:uid="{EB433C25-95B3-4081-86F2-B7283F02A095}" name="KW3"/>
     <tableColumn id="15" xr3:uid="{9C5F95BE-0786-4130-9378-CE0EF25D59ED}" name="KW4"/>
     <tableColumn id="16" xr3:uid="{861CCDC3-59CC-407D-ABC4-8F600A96EDD0}" name="KW5"/>
@@ -520,7 +572,7 @@
   <dimension ref="A1:X10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -528,6 +580,9 @@
     <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.3">
@@ -606,42 +661,113 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="G4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+    </row>
+    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="E5" s="1"/>
+      <c r="F5" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+    </row>
+    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>33</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" t="s">

--- a/ortlepp/RO_Lernplan.xlsx
+++ b/ortlepp/RO_Lernplan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\Desktop\gdw\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Studium\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F421742A-699E-4D10-B922-1A50B0A0CED6}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -31,127 +31,142 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
-  <si>
-    <t>Lernplan</t>
-  </si>
-  <si>
-    <t>Lernziele:</t>
-  </si>
-  <si>
-    <t>Javascript grundlagen</t>
-  </si>
-  <si>
-    <t>Javascript erweitert</t>
-  </si>
-  <si>
-    <t>Git/Github</t>
-  </si>
-  <si>
-    <t>Node.js</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 1</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 2</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 3</t>
-  </si>
-  <si>
-    <t>Wochenplan:</t>
-  </si>
-  <si>
-    <t>KW43</t>
-  </si>
-  <si>
-    <t>KW44</t>
-  </si>
-  <si>
-    <t>KW45</t>
-  </si>
-  <si>
-    <t>KW46</t>
-  </si>
-  <si>
-    <t>KW47</t>
-  </si>
-  <si>
-    <t>KW48</t>
-  </si>
-  <si>
-    <t>KW49</t>
-  </si>
-  <si>
-    <t>KW50</t>
-  </si>
-  <si>
-    <t>KW51</t>
-  </si>
-  <si>
-    <t>KW52</t>
-  </si>
-  <si>
-    <t>KW1</t>
-  </si>
-  <si>
-    <t>KW2</t>
-  </si>
-  <si>
-    <t>KW3</t>
-  </si>
-  <si>
-    <t>KW4</t>
-  </si>
-  <si>
-    <t>KW5</t>
-  </si>
-  <si>
-    <t>KW6</t>
-  </si>
-  <si>
-    <t>KW7</t>
-  </si>
-  <si>
-    <t>KW8</t>
-  </si>
-  <si>
-    <t>KW9</t>
-  </si>
-  <si>
-    <t>KW10</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
   <si>
     <t>Spalte1</t>
   </si>
   <si>
-    <t>Was soll gemacht werden</t>
-  </si>
-  <si>
-    <t>Was fehlt noch</t>
-  </si>
-  <si>
-    <t>Was hab ich gemacht</t>
-  </si>
-  <si>
-    <t>OBS lernen</t>
-  </si>
-  <si>
-    <t>Video drehen und hochladen</t>
-  </si>
-  <si>
-    <t>Javascript Grundlagen Aufgabenblatt 1</t>
-  </si>
-  <si>
-    <t>Blatt 1 Grundlagen Javascript</t>
+    <t>Lernplan GdW WS 19/20</t>
+  </si>
+  <si>
+    <t>Lernziel 1</t>
+  </si>
+  <si>
+    <t>Lernziel 2</t>
+  </si>
+  <si>
+    <t>Lernziel 3</t>
+  </si>
+  <si>
+    <t>Lernziel 4</t>
+  </si>
+  <si>
+    <t>Lernziel 5</t>
+  </si>
+  <si>
+    <t>Lernziel 6</t>
+  </si>
+  <si>
+    <t>Lernziel 7</t>
+  </si>
+  <si>
+    <t>Lernziel 8</t>
+  </si>
+  <si>
+    <t>Lernziel 9</t>
+  </si>
+  <si>
+    <t>Lernziel 10</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 2 gelöst</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 beginnen</t>
+  </si>
+  <si>
+    <t>Javascript Vertiefung</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 gelöst</t>
+  </si>
+  <si>
+    <t>Video erstellen</t>
+  </si>
+  <si>
+    <t>Lernplan 1. Phase</t>
+  </si>
+  <si>
+    <t>Lernplan 2. Phase</t>
+  </si>
+  <si>
+    <t>14.10.2019</t>
+  </si>
+  <si>
+    <t>21.10.2019</t>
+  </si>
+  <si>
+    <t>28.10.2019</t>
+  </si>
+  <si>
+    <t>04.11.2019</t>
+  </si>
+  <si>
+    <t>07.11.2019</t>
+  </si>
+  <si>
+    <t>11.11.2019</t>
+  </si>
+  <si>
+    <t>18.11.2019</t>
+  </si>
+  <si>
+    <t>25.11.2019</t>
+  </si>
+  <si>
+    <t>02.12.2019</t>
+  </si>
+  <si>
+    <t>09.12.2019</t>
+  </si>
+  <si>
+    <t>12.12.2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Programme runterladen|</t>
+  </si>
+  <si>
+    <t>Programme einrichten|</t>
+  </si>
+  <si>
+    <t>Javascript Grundlagen|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 1 beginnen|</t>
+  </si>
+  <si>
+    <t>NodeJS Grundlagen|</t>
+  </si>
+  <si>
+    <t>Erste Schritte in Git|</t>
+  </si>
+  <si>
+    <t>Erste Schritte in Github|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 1 gelöst|</t>
+  </si>
+  <si>
+    <t>Lernplan einführen|</t>
+  </si>
+  <si>
+    <t>Git weitere Schritte|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 2 beginnen|</t>
+  </si>
+  <si>
+    <t>erweiterte Javascript Grundlagen|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -159,13 +174,27 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -180,57 +209,130 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+  <dxfs count="17">
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF4B4B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF5B5B"/>
+      <color rgb="FFFF4B4B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -243,32 +345,33 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{27E5456E-1E44-4AB8-80EE-2B28853BAF5E}" name="Tabelle2" displayName="Tabelle2" ref="D3:X8" totalsRowShown="0">
-  <autoFilter ref="D3:X8" xr:uid="{CCC7283C-DAE7-45AF-810C-730F5752B008}"/>
-  <tableColumns count="21">
-    <tableColumn id="1" xr3:uid="{46226E65-C013-4713-9BAD-49FC9D38D477}" name="Spalte1" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{74EE3947-3B5D-401E-BB10-0C0C88B03E42}" name="KW43" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{3AAB0039-DCF9-4765-9261-7514EA2B6910}" name="KW44" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{73278B9F-1DF2-43EB-B44B-FEF91025E1A5}" name="KW45" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{193DA061-945F-4A8E-9110-AF0B692C737E}" name="KW46" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{0C6684A0-44FF-4791-B5F8-4D4E1E0441D7}" name="KW47" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{9F3E1F87-3A5C-4C49-9C2C-94B4EB146591}" name="KW48" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{C33BF3AF-EE95-4335-B56C-9B6F21B8C55B}" name="KW49" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{4C17F2E0-F2C7-4B27-B9CC-AA3CAC45A3C1}" name="KW50" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{F8CA05F7-F18C-4751-AB3D-ABAA94C2245C}" name="KW51" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{37B23729-425C-4CD7-A3AB-D97512313AD1}" name="KW52" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{53302DFB-E2AE-43DD-8AE5-8F3D47EAAE3A}" name="KW1" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{D36F548D-0B3E-49EC-9F26-2732FBDBC735}" name="KW2" dataDxfId="0"/>
-    <tableColumn id="14" xr3:uid="{EB433C25-95B3-4081-86F2-B7283F02A095}" name="KW3"/>
-    <tableColumn id="15" xr3:uid="{9C5F95BE-0786-4130-9378-CE0EF25D59ED}" name="KW4"/>
-    <tableColumn id="16" xr3:uid="{861CCDC3-59CC-407D-ABC4-8F600A96EDD0}" name="KW5"/>
-    <tableColumn id="17" xr3:uid="{85DFFFCB-8F93-4942-85FF-E432F38D2B2F}" name="KW6"/>
-    <tableColumn id="18" xr3:uid="{379F84E3-1D32-40B1-8BC3-F531008CA9AF}" name="KW7"/>
-    <tableColumn id="19" xr3:uid="{BB3D4F7E-FB17-4FFB-B163-B2D1EF90EE2D}" name="KW8"/>
-    <tableColumn id="20" xr3:uid="{3ACE6143-5AA3-4B99-9073-D100E632340B}" name="KW9"/>
-    <tableColumn id="21" xr3:uid="{749F1881-2537-4106-B03B-52BFD04C3B43}" name="KW10"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="16">
+  <autoFilter ref="B4:G14" xr:uid="{D44C9E2F-7976-40E8-A486-EBF6507627C4}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{72016BA1-798D-434E-94D3-E4FB845B7D68}" name="Spalte1"/>
+    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="0"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="15">
+  <autoFilter ref="B17:H27" xr:uid="{5F7A066F-B980-4062-832F-F98447EECDC6}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{18C42512-9A05-4FEC-BC9E-3F59F1D257CF}" name="Spalte1"/>
+    <tableColumn id="2" xr3:uid="{92EEA2FC-8067-4567-97A5-69EE0D6234AE}" name="11.11.2019"/>
+    <tableColumn id="3" xr3:uid="{B0CACBFC-1F59-4E06-BE60-69670FB49198}" name="18.11.2019"/>
+    <tableColumn id="4" xr3:uid="{94B022D4-4944-4A27-B498-70C9FC4F581D}" name="25.11.2019"/>
+    <tableColumn id="5" xr3:uid="{55B1BFCB-FD5B-4EC9-A8C5-C55EF485CCC8}" name="02.12.2019"/>
+    <tableColumn id="6" xr3:uid="{71AB1C01-8CF1-4D9A-A990-71B3633FAE64}" name="09.12.2019"/>
+    <tableColumn id="7" xr3:uid="{9417C1C2-6520-46E2-84FB-185CA376BDEE}" name="12.12.2019"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -569,137 +672,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF8655-E78F-4D59-AC94-A83DBDC40DAF}">
-  <dimension ref="A1:X10"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.28515625" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N3" t="s">
+      <c r="C4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="O3" t="s">
+      <c r="D4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="P3" t="s">
+      <c r="E4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="F4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="R3" t="s">
+      <c r="G4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="S3" t="s">
-        <v>24</v>
-      </c>
-      <c r="T3" t="s">
-        <v>25</v>
-      </c>
-      <c r="U3" t="s">
-        <v>26</v>
-      </c>
-      <c r="V3" t="s">
-        <v>27</v>
-      </c>
-      <c r="W3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
-    </row>
-    <row r="5" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>35</v>
+      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -710,19 +760,29 @@
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
-    </row>
-    <row r="6" spans="1:24" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
+      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
+      <c r="S5" s="1"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>16</v>
+      </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -732,15 +792,25 @@
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
+      <c r="Q6" s="1"/>
+      <c r="R6" s="1"/>
+      <c r="S6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -750,15 +820,23 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-    </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
+      <c r="Q7" s="1"/>
+      <c r="R7" s="1"/>
+      <c r="S7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -768,21 +846,167 @@
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
       <c r="P8" s="1"/>
-    </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="Q8" s="1"/>
+      <c r="R8" s="1"/>
+      <c r="S8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="C10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>8</v>
       </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" s="2"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C5:G14">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",C5)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="|">
+      <formula>RIGHT(C5,LEN("|"))="|"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/ortlepp/RO_Lernplan.xlsx
+++ b/ortlepp/RO_Lernplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Studium\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="119" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{F421742A-699E-4D10-B922-1A50B0A0CED6}"/>
+  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7626A1EC-B128-4FAD-839B-CC9E912751FF}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
   </bookViews>
@@ -69,12 +69,6 @@
     <t>Lernziel 10</t>
   </si>
   <si>
-    <t>Aufgabenblatt 2 gelöst</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 3 beginnen</t>
-  </si>
-  <si>
     <t>Javascript Vertiefung</t>
   </si>
   <si>
@@ -160,6 +154,12 @@
   </si>
   <si>
     <t>erweiterte Javascript Grundlagen|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 2 gelöst|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 beginnen|</t>
   </si>
 </sst>
 </file>
@@ -183,7 +183,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -193,6 +193,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -209,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -225,11 +231,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="17">
+  <dxfs count="9">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -246,19 +258,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -274,56 +274,6 @@
           <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF4B4B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -345,22 +295,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="16">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B4:G14" xr:uid="{D44C9E2F-7976-40E8-A486-EBF6507627C4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72016BA1-798D-434E-94D3-E4FB845B7D68}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="B17:H27" xr:uid="{5F7A066F-B980-4062-832F-F98447EECDC6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{18C42512-9A05-4FEC-BC9E-3F59F1D257CF}" name="Spalte1"/>
@@ -675,7 +625,7 @@
   <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,7 +634,7 @@
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -702,19 +652,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -731,25 +681,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>12</v>
+        <v>40</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -769,19 +719,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -801,14 +751,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1"/>
@@ -829,10 +779,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -855,10 +805,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -869,7 +819,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5"/>
@@ -918,28 +868,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -995,10 +945,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:G14">
-    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",C5)))</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="5" priority="1" operator="endsWith" text="|">
+    <cfRule type="endsWith" dxfId="7" priority="1" operator="endsWith" text="|">
       <formula>RIGHT(C5,LEN("|"))="|"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/ortlepp/RO_Lernplan.xlsx
+++ b/ortlepp/RO_Lernplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Studium\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="126" documentId="13_ncr:1_{03307342-787A-4372-898A-71ABA9C75C79}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{7626A1EC-B128-4FAD-839B-CC9E912751FF}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0D74E-C3D8-4333-9C2A-EA465B97C234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
   <si>
     <t>Spalte1</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Lernziel 10</t>
   </si>
   <si>
-    <t>Javascript Vertiefung</t>
-  </si>
-  <si>
     <t>Aufgabenblatt 3 gelöst</t>
   </si>
   <si>
@@ -159,7 +156,22 @@
     <t>Aufgabenblatt 2 gelöst|</t>
   </si>
   <si>
-    <t>Aufgabenblatt 3 beginnen|</t>
+    <t>Javascript Vertiefung.</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 beginnen.</t>
+  </si>
+  <si>
+    <t>Aktualisierung im Github</t>
+  </si>
+  <si>
+    <t>Aktualisierung im Github|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 weiter bearbeitet.</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 4 beginnen</t>
   </si>
 </sst>
 </file>
@@ -183,7 +195,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -202,6 +214,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -215,7 +233,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -234,14 +252,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
+  <dxfs count="36">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -258,14 +279,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -274,6 +288,188 @@
           <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFFF4B4B"/>
+          <bgColor rgb="FFFF5B5B"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -295,31 +491,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="35">
   <autoFilter ref="B4:G14" xr:uid="{D44C9E2F-7976-40E8-A486-EBF6507627C4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72016BA1-798D-434E-94D3-E4FB845B7D68}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="29">
   <autoFilter ref="B17:H27" xr:uid="{5F7A066F-B980-4062-832F-F98447EECDC6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{18C42512-9A05-4FEC-BC9E-3F59F1D257CF}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{92EEA2FC-8067-4567-97A5-69EE0D6234AE}" name="11.11.2019"/>
-    <tableColumn id="3" xr3:uid="{B0CACBFC-1F59-4E06-BE60-69670FB49198}" name="18.11.2019"/>
-    <tableColumn id="4" xr3:uid="{94B022D4-4944-4A27-B498-70C9FC4F581D}" name="25.11.2019"/>
-    <tableColumn id="5" xr3:uid="{55B1BFCB-FD5B-4EC9-A8C5-C55EF485CCC8}" name="02.12.2019"/>
-    <tableColumn id="6" xr3:uid="{71AB1C01-8CF1-4D9A-A990-71B3633FAE64}" name="09.12.2019"/>
-    <tableColumn id="7" xr3:uid="{9417C1C2-6520-46E2-84FB-185CA376BDEE}" name="12.12.2019"/>
+    <tableColumn id="2" xr3:uid="{92EEA2FC-8067-4567-97A5-69EE0D6234AE}" name="11.11.2019" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{B0CACBFC-1F59-4E06-BE60-69670FB49198}" name="18.11.2019" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{94B022D4-4944-4A27-B498-70C9FC4F581D}" name="25.11.2019" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{55B1BFCB-FD5B-4EC9-A8C5-C55EF485CCC8}" name="02.12.2019" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{71AB1C01-8CF1-4D9A-A990-71B3633FAE64}" name="09.12.2019" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{9417C1C2-6520-46E2-84FB-185CA376BDEE}" name="12.12.2019" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -624,18 +820,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF8655-E78F-4D59-AC94-A83DBDC40DAF}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
@@ -652,19 +848,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -681,25 +877,25 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>41</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -719,19 +915,19 @@
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -751,14 +947,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="6" t="s">
-        <v>12</v>
+      <c r="F7" s="8" t="s">
+        <v>41</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1"/>
@@ -779,10 +975,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -805,10 +1001,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -819,18 +1015,28 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
+        <v>34</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
       <c r="F11" s="5"/>
@@ -868,28 +1074,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -897,59 +1103,139 @@
       <c r="B18" t="s">
         <v>2</v>
       </c>
+      <c r="C18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
+      <c r="C19" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="9"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="9"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>5</v>
       </c>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="9"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>6</v>
       </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>7</v>
       </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>8</v>
       </c>
+      <c r="C24" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>9</v>
       </c>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>10</v>
       </c>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="9"/>
+      <c r="H26" s="9"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>11</v>
       </c>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="9"/>
+      <c r="H27" s="9"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:G14">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",C5)))</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="7" priority="1" operator="endsWith" text="|">
+    <cfRule type="endsWith" dxfId="16" priority="8" operator="endsWith" text="|">
       <formula>RIGHT(C5,LEN("|"))="|"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",C5)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C18:H27">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text=".">
+      <formula>NOT(ISERROR(SEARCH(".",C18)))</formula>
+    </cfRule>
+    <cfRule type="endsWith" dxfId="13" priority="2" operator="endsWith" text="|">
+      <formula>RIGHT(C18,LEN("|"))="|"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="e">
+      <formula>NOT(ISERROR(SEARCH("e",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/ortlepp/RO_Lernplan.xlsx
+++ b/ortlepp/RO_Lernplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Studium\Grundlagen des Web\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robin\OneDrive\Studium\Grundlagen des Web\neues_Projekt\Projekt-Waesche-Weinandy-Ortlepp\ortlepp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A0D74E-C3D8-4333-9C2A-EA465B97C234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{11A0D74E-C3D8-4333-9C2A-EA465B97C234}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{6FFD0F17-A74F-4D7D-9C4D-D7FD59F1E0D9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDC6747C-F5DD-4020-939D-6DBF19950C32}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Spalte1</t>
   </si>
@@ -69,9 +69,6 @@
     <t>Lernziel 10</t>
   </si>
   <si>
-    <t>Aufgabenblatt 3 gelöst</t>
-  </si>
-  <si>
     <t>Video erstellen</t>
   </si>
   <si>
@@ -156,22 +153,46 @@
     <t>Aufgabenblatt 2 gelöst|</t>
   </si>
   <si>
-    <t>Javascript Vertiefung.</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 3 beginnen.</t>
-  </si>
-  <si>
-    <t>Aktualisierung im Github</t>
-  </si>
-  <si>
     <t>Aktualisierung im Github|</t>
   </si>
   <si>
-    <t>Aufgabenblatt 3 weiter bearbeitet.</t>
-  </si>
-  <si>
-    <t>Aufgabenblatt 4 beginnen</t>
+    <t>Video erstellen|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 weiter bearbeitet|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 beginnen|</t>
+  </si>
+  <si>
+    <t>Javascript Vertiefung|</t>
+  </si>
+  <si>
+    <t>Aufgabenblatt 3 gelöst.</t>
+  </si>
+  <si>
+    <t>PoC fertig</t>
+  </si>
+  <si>
+    <t>Proof of Concepts erstellen |</t>
+  </si>
+  <si>
+    <t>erste Schritte in REST|</t>
+  </si>
+  <si>
+    <t>APIs vergleichen</t>
+  </si>
+  <si>
+    <t>APIs raussuchen|</t>
+  </si>
+  <si>
+    <t>Anwendungslogik |</t>
+  </si>
+  <si>
+    <t>Aktualisierung im Github.</t>
+  </si>
+  <si>
+    <t>Lernplan erweitern|</t>
   </si>
 </sst>
 </file>
@@ -262,7 +283,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="36">
+  <dxfs count="19">
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -280,6 +301,27 @@
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <fill>
@@ -324,152 +366,6 @@
           <bgColor rgb="FFFF5B5B"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <fgColor rgb="FFFF4B4B"/>
-          <bgColor rgb="FFFF5B5B"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -491,22 +387,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{23AE9CCB-A940-49CF-8908-A6F93AFAA636}" name="Tabelle2" displayName="Tabelle2" ref="B4:G14" totalsRowShown="0" headerRowDxfId="12">
   <autoFilter ref="B4:G14" xr:uid="{D44C9E2F-7976-40E8-A486-EBF6507627C4}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{72016BA1-798D-434E-94D3-E4FB845B7D68}" name="Spalte1"/>
-    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{67A266E3-37F7-4106-96E2-7A7DB6D1D9DB}" name="14.10.2019" dataDxfId="11"/>
+    <tableColumn id="3" xr3:uid="{245252CD-6401-492A-8AB6-685FA063C8A2}" name="21.10.2019" dataDxfId="10"/>
+    <tableColumn id="4" xr3:uid="{59766226-C795-4C72-8035-46877462E9BC}" name="28.10.2019" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{603918C4-354F-4A01-BA58-8FBD247F9F21}" name="04.11.2019" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{660C0422-40D1-4EE5-9FF0-FD4D7B883DCE}" name="07.11.2019" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2EDC0F73-9511-4B2F-9F8F-CD785539AE57}" name="Tabelle5" displayName="Tabelle5" ref="B17:H27" totalsRowShown="0" headerRowDxfId="6">
   <autoFilter ref="B17:H27" xr:uid="{5F7A066F-B980-4062-832F-F98447EECDC6}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{18C42512-9A05-4FEC-BC9E-3F59F1D257CF}" name="Spalte1"/>
@@ -820,8 +716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14DF8655-E78F-4D59-AC94-A83DBDC40DAF}">
   <dimension ref="A1:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -832,7 +728,7 @@
     <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="24.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="13.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.7109375" customWidth="1"/>
@@ -848,19 +744,19 @@
         <v>0</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>20</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -875,27 +771,27 @@
       <c r="R4" s="1"/>
       <c r="S4" s="1"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>40</v>
-      </c>
       <c r="G5" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
@@ -910,24 +806,24 @@
       <c r="R5" s="1"/>
       <c r="S5" s="1"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>3</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G6" s="6" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -947,14 +843,14 @@
         <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G7" s="6"/>
       <c r="H7" s="1"/>
@@ -975,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="6"/>
@@ -1001,10 +897,10 @@
         <v>6</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
@@ -1015,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1035,7 +931,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5"/>
@@ -1074,28 +970,28 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
         <v>0</v>
       </c>
       <c r="C17" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="F17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="G17" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="H17" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="I17" s="2"/>
     </row>
@@ -1104,37 +1000,51 @@
         <v>2</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="9"/>
+      <c r="G18" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>3</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D19" s="9"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="9" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" s="9"/>
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
+      <c r="H19" s="9" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>53</v>
+      </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
+      <c r="H20" s="9" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
@@ -1174,13 +1084,23 @@
         <v>8</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
+        <v>40</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G24" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H24" s="5" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
@@ -1217,24 +1137,24 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:G14">
-    <cfRule type="containsText" dxfId="17" priority="10" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="18" priority="10" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",C5)))</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="16" priority="8" operator="endsWith" text="|">
+    <cfRule type="endsWith" dxfId="17" priority="8" operator="endsWith" text="|">
       <formula>RIGHT(C5,LEN("|"))="|"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="16" priority="7" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",C5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C18:H27">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text=".">
+    <cfRule type="containsText" dxfId="15" priority="1" operator="containsText" text=".">
       <formula>NOT(ISERROR(SEARCH(".",C18)))</formula>
     </cfRule>
-    <cfRule type="endsWith" dxfId="13" priority="2" operator="endsWith" text="|">
+    <cfRule type="endsWith" dxfId="14" priority="2" operator="endsWith" text="|">
       <formula>RIGHT(C18,LEN("|"))="|"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="e">
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="e">
       <formula>NOT(ISERROR(SEARCH("e",C18)))</formula>
     </cfRule>
   </conditionalFormatting>
